--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://certara-my.sharepoint.com/personal/daniela_santurio_certara_com/Documents/CAR DESIGN/CODE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://certara-my.sharepoint.com/personal/daniela_santurio_certara_com/Documents/CAR DESIGN/CODE/CRS-CART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:40009_{2631B1A0-BCFD-4105-BBD8-336C1DBECCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD720CDB-1519-4FC7-B2A7-BEF1F0402CF8}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:40009_{2631B1A0-BCFD-4105-BBD8-336C1DBECCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7740D9BA-EE17-461D-897B-2DFE21BCD682}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="2550" windowWidth="26070" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="2610" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VPop- - CYTOKINES" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -868,7 +868,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -928,9 +927,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -968,7 +967,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1074,7 +1073,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1216,7 +1215,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1226,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AE29" sqref="AE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1382,7 @@
         <v>3.9847099999999998E-3</v>
       </c>
       <c r="N2" s="14">
-        <v>2.8799999999999998E-12</v>
+        <v>1E-8</v>
       </c>
       <c r="O2" s="13">
         <v>1.4931000000000001</v>
@@ -1405,37 +1404,37 @@
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="12">
-        <v>0.67600000000000005</v>
+        <v>0.68977297190458786</v>
       </c>
       <c r="W2" s="13">
-        <v>1</v>
+        <v>1.020374218793769</v>
       </c>
       <c r="X2" s="14">
-        <v>2.4199999999999999E-9</v>
+        <v>5.9978940309447278E-9</v>
       </c>
       <c r="Y2" s="13">
-        <v>1.74485E-3</v>
+        <v>0.10756795617868531</v>
       </c>
       <c r="Z2" s="14">
-        <v>9.9999999999999998E-13</v>
+        <v>1.9215308460313416E-13</v>
       </c>
       <c r="AA2" s="13">
-        <v>0</v>
+        <v>1.346656177158173E-12</v>
       </c>
       <c r="AB2" s="14">
-        <v>8.1899999999999996E-10</v>
+        <v>2.9915648096603266E-9</v>
       </c>
       <c r="AC2" s="14">
-        <v>1000054567</v>
+        <v>4649269259.2210865</v>
       </c>
       <c r="AD2" s="14">
-        <v>824000000</v>
+        <v>1183408196.4935229</v>
       </c>
       <c r="AE2" s="15">
-        <v>4970000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AF2" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
@@ -1465,71 +1464,71 @@
         <v>10.85247575</v>
       </c>
       <c r="J3" s="2">
-        <v>3.549393E-2</v>
+        <v>1.8804100000000001E-2</v>
       </c>
       <c r="K3">
-        <v>0.191358</v>
+        <v>0.70633699999999999</v>
       </c>
       <c r="L3">
-        <v>2.86</v>
+        <v>0.45186900000000002</v>
       </c>
       <c r="M3">
-        <v>9.1041960000000002E-3</v>
+        <v>6.6626200000000002E-3</v>
       </c>
       <c r="N3" s="31">
-        <v>1.2400000000000001E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O3">
-        <v>1.5225500000000001</v>
+        <v>0.229297</v>
       </c>
       <c r="P3">
-        <v>2.93987E-2</v>
+        <v>0.12931110000000001</v>
       </c>
       <c r="Q3" s="31">
-        <v>59700000</v>
+        <v>20097572</v>
       </c>
       <c r="R3" s="31">
-        <v>100000000</v>
+        <v>128663</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>1.48031</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2">
-        <v>10.85247575</v>
+        <v>21.039125568513047</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>3.1390439444246763</v>
       </c>
       <c r="X3" s="31">
-        <v>1.68E-6</v>
+        <v>2.7089864407942115E-8</v>
       </c>
       <c r="Y3">
-        <v>0.52080967499999997</v>
+        <v>0.52238874751847419</v>
       </c>
       <c r="Z3" s="31">
-        <v>1.66E-11</v>
+        <v>1.917742961582157E-12</v>
       </c>
       <c r="AA3" s="31">
-        <v>1.5900000000000001E-12</v>
+        <v>1.0294782641690522E-13</v>
       </c>
       <c r="AB3" s="31">
-        <v>2.0100000000000001E-8</v>
+        <v>9.1844218514318043E-9</v>
       </c>
       <c r="AC3" s="31">
-        <v>1000023746</v>
+        <v>96260460889.228409</v>
       </c>
       <c r="AD3" s="31">
-        <v>1659.070123</v>
+        <v>103266974.27728479</v>
       </c>
       <c r="AE3" s="4">
-        <v>725580662.5</v>
+        <v>10000000000</v>
       </c>
       <c r="AF3" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -1571,7 +1570,7 @@
         <v>1.9111320000000001E-3</v>
       </c>
       <c r="N4" s="31">
-        <v>1.2400000000000001E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O4">
         <v>1.8</v>
@@ -1593,37 +1592,37 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2">
-        <v>10.847371109999999</v>
+        <v>8.4314436920912961</v>
       </c>
       <c r="W4">
-        <v>9.9999999949999996</v>
+        <v>3.0187768321128878</v>
       </c>
       <c r="X4" s="31">
-        <v>6.5799999999999994E-8</v>
+        <v>6.4904500890692649E-7</v>
       </c>
       <c r="Y4">
-        <v>6.2285985000000002E-2</v>
+        <v>0.93527675439890567</v>
       </c>
       <c r="Z4">
-        <v>1.01937E-4</v>
+        <v>3.2920936238648992E-11</v>
       </c>
       <c r="AA4" s="31">
-        <v>1.0300000000000001E-6</v>
+        <v>2.3905475997049441E-11</v>
       </c>
       <c r="AB4" s="31">
-        <v>1.73E-6</v>
+        <v>3.1767172703683549E-11</v>
       </c>
       <c r="AC4" s="31">
-        <v>1000002756</v>
+        <v>15322367397.053946</v>
       </c>
       <c r="AD4" s="31">
-        <v>1.1448509999999999E-3</v>
+        <v>1270317752.2023342</v>
       </c>
       <c r="AE4" s="4">
-        <v>9599073.4820000008</v>
+        <v>10000000000</v>
       </c>
       <c r="AF4" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1665,7 +1664,7 @@
         <v>1E-3</v>
       </c>
       <c r="N5" s="31">
-        <v>1.2499999999999999E-12</v>
+        <v>1E-8</v>
       </c>
       <c r="O5">
         <v>0.83691170599999998</v>
@@ -1687,37 +1686,37 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2">
-        <v>5.75</v>
+        <v>105.97544439599847</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>20.270742998469487</v>
       </c>
       <c r="X5" s="31">
-        <v>4.9999999999999998E-7</v>
+        <v>2.8069081932901096E-7</v>
       </c>
       <c r="Y5">
-        <v>0.31</v>
+        <v>0.2493761866618675</v>
       </c>
       <c r="Z5" s="31">
-        <v>0</v>
+        <v>2.7785643328395787E-12</v>
       </c>
       <c r="AA5" s="31">
-        <v>1.33E-12</v>
+        <v>5.2890252524320763E-14</v>
       </c>
       <c r="AB5" s="31">
-        <v>1.6299999999999999E-7</v>
+        <v>9.770706499084456E-9</v>
       </c>
       <c r="AC5" s="31">
-        <v>5000000000</v>
+        <v>92225300934.351761</v>
       </c>
       <c r="AD5" s="31">
-        <v>1000000</v>
+        <v>185454560.85995647</v>
       </c>
       <c r="AE5" s="4">
-        <v>8000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AF5" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1759,7 +1758,7 @@
         <v>7.3480400000000001E-2</v>
       </c>
       <c r="N6" s="31">
-        <v>2.8799999999999998E-12</v>
+        <v>1E-8</v>
       </c>
       <c r="O6">
         <v>2.7239900000000001</v>
@@ -1781,37 +1780,37 @@
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2">
-        <v>235.53700000000001</v>
+        <v>15.225197798646509</v>
       </c>
       <c r="W6">
-        <v>313.98899999999998</v>
+        <v>9.4098873910052578</v>
       </c>
       <c r="X6" s="31">
-        <v>7.8772900000000006E-5</v>
+        <v>1.3096623224466196E-6</v>
       </c>
       <c r="Y6">
-        <v>130</v>
+        <v>0.43140493493007193</v>
       </c>
       <c r="Z6" s="31">
-        <v>8.0000000000000003E-10</v>
+        <v>2.2826979466061408E-11</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.9875592605294846E-13</v>
       </c>
       <c r="AB6" s="31">
-        <v>1.1899999999999999E-7</v>
+        <v>8.4758392280807777E-9</v>
       </c>
       <c r="AC6" s="31">
-        <v>1230000000</v>
+        <v>98425974391.476624</v>
       </c>
       <c r="AD6" s="31">
-        <v>969000000000</v>
+        <v>101952468.46407337</v>
       </c>
       <c r="AE6" s="4">
-        <v>115000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AF6" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1853,7 +1852,7 @@
         <v>3.8317059999999998E-3</v>
       </c>
       <c r="N7" s="19">
-        <v>2.8799999999999998E-12</v>
+        <v>1E-8</v>
       </c>
       <c r="O7" s="18">
         <v>1.9996318390000001</v>
@@ -1875,37 +1874,37 @@
       </c>
       <c r="U7" s="17"/>
       <c r="V7" s="17">
-        <v>2.17</v>
+        <v>29.995170220767641</v>
       </c>
       <c r="W7" s="18">
-        <v>1</v>
+        <v>17.238603575153817</v>
       </c>
       <c r="X7" s="19">
-        <v>1.1999999999999999E-7</v>
+        <v>1.3133171759105142E-6</v>
       </c>
       <c r="Y7" s="18">
-        <v>100</v>
+        <v>0.93737580445323088</v>
       </c>
       <c r="Z7" s="19">
-        <v>7.6899999999999997E-9</v>
+        <v>1.4313703835294193E-10</v>
       </c>
       <c r="AA7" s="18">
-        <v>0</v>
+        <v>2.8339135821740435E-15</v>
       </c>
       <c r="AB7" s="19">
-        <v>6.9299999999999997E-7</v>
+        <v>7.5989130508916944E-9</v>
       </c>
       <c r="AC7" s="19">
-        <v>4090000000</v>
+        <v>87989160752.394043</v>
       </c>
       <c r="AD7" s="19">
-        <v>235000000000</v>
+        <v>7589581976.4908199</v>
       </c>
       <c r="AE7" s="21">
-        <v>1980000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AF7" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1947,7 +1946,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="N8" s="14">
-        <v>3.4099999999999997E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O8" s="13">
         <v>0.119226918</v>
@@ -1969,37 +1968,37 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="12">
-        <v>1.8220099190000001</v>
+        <v>2.6229262029678124</v>
       </c>
       <c r="W8" s="13">
-        <v>0.45550247999999999</v>
+        <v>1.2490124776037201</v>
       </c>
       <c r="X8" s="14">
-        <v>6.4000000000000001E-7</v>
+        <v>3.0992824937303445E-7</v>
       </c>
       <c r="Y8" s="13">
-        <v>0.34638049999999998</v>
+        <v>0.53632161619151553</v>
       </c>
       <c r="Z8" s="14">
-        <v>9.9999999999999998E-13</v>
+        <v>7.5286163980286762E-13</v>
       </c>
       <c r="AA8" s="14">
-        <v>9.9999999999999998E-13</v>
+        <v>1.0563091523913689E-14</v>
       </c>
       <c r="AB8" s="14">
-        <v>1.9300000000000002E-9</v>
+        <v>6.3830135911453688E-10</v>
       </c>
       <c r="AC8" s="14">
-        <v>1867744588</v>
+        <v>83279360753.086929</v>
       </c>
       <c r="AD8" s="14">
-        <v>5058072.6670000004</v>
+        <v>545633727.40182161</v>
       </c>
       <c r="AE8" s="15">
-        <v>1915427508</v>
+        <v>10000000000</v>
       </c>
       <c r="AF8" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -2012,10 +2011,10 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9">
         <v>1560</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9">
         <v>31</v>
       </c>
       <c r="F9" s="31">
@@ -2041,7 +2040,7 @@
         <v>8.0059599999999999E-4</v>
       </c>
       <c r="N9" s="31">
-        <v>2.09E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O9">
         <v>3.5548035999999998E-2</v>
@@ -2063,37 +2062,37 @@
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="2">
-        <v>2.3776999999999999</v>
+        <v>54.190433252937432</v>
       </c>
       <c r="W9">
-        <v>1.302961</v>
+        <v>10.224610047724044</v>
       </c>
       <c r="X9" s="31">
-        <v>2.9999999999999999E-7</v>
+        <v>1.4651298201009954E-7</v>
       </c>
       <c r="Y9">
-        <v>0.154691</v>
+        <v>0.16062754443833824</v>
       </c>
       <c r="Z9" s="31">
-        <v>1.7699999999999999E-12</v>
+        <v>1.4840984592481422E-12</v>
       </c>
       <c r="AA9" s="31">
-        <v>0</v>
+        <v>1.1086446991392227E-15</v>
       </c>
       <c r="AB9" s="31">
-        <v>1.86E-9</v>
+        <v>5.2428325792884378E-9</v>
       </c>
       <c r="AC9" s="31">
-        <v>5000000000</v>
+        <v>61836963097.255722</v>
       </c>
       <c r="AD9" s="31">
-        <v>5050000</v>
+        <v>154812343.09128597</v>
       </c>
       <c r="AE9" s="4">
-        <v>200000000</v>
+        <v>10000000000</v>
       </c>
       <c r="AF9" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -2106,10 +2105,10 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10">
         <v>180</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10">
         <v>175</v>
       </c>
       <c r="F10" s="31">
@@ -2135,7 +2134,7 @@
         <v>2.2606899999999999E-4</v>
       </c>
       <c r="N10" s="31">
-        <v>5.5200000000000001E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O10">
         <v>0.1</v>
@@ -2157,37 +2156,37 @@
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="2">
-        <v>11.98727646</v>
+        <v>8.4932986767891503</v>
       </c>
       <c r="W10">
-        <v>1.303045303</v>
+        <v>1.023288997203512</v>
       </c>
       <c r="X10" s="31">
-        <v>1.7800000000000001E-7</v>
+        <v>1.4981752326774109E-8</v>
       </c>
       <c r="Y10">
-        <v>0.36653855000000002</v>
+        <v>0.54633220659754755</v>
       </c>
       <c r="Z10" s="31">
-        <v>1.49E-5</v>
+        <v>2.1616843723478235E-11</v>
       </c>
       <c r="AA10" s="31">
-        <v>1.86E-10</v>
+        <v>9.9818004696140711E-11</v>
       </c>
       <c r="AB10" s="31">
-        <v>4.07E-8</v>
+        <v>6.2566681304446539E-11</v>
       </c>
       <c r="AC10" s="31">
-        <v>2246040248</v>
+        <v>94729570088.796158</v>
       </c>
       <c r="AD10" s="31">
-        <v>1000000.039</v>
+        <v>105254361.23949876</v>
       </c>
       <c r="AE10" s="4">
-        <v>1817535248</v>
+        <v>10000000000</v>
       </c>
       <c r="AF10" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -2200,7 +2199,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11">
         <v>390</v>
       </c>
       <c r="F11" s="31">
@@ -2224,7 +2223,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N11" s="31">
-        <v>4.7199999999999999E-7</v>
+        <v>1E-8</v>
       </c>
       <c r="O11">
         <v>0.1</v>
@@ -2252,9 +2251,11 @@
       <c r="AB11" s="31"/>
       <c r="AC11" s="31"/>
       <c r="AD11" s="31"/>
-      <c r="AE11" s="4"/>
+      <c r="AE11" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF11" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -2267,7 +2268,7 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12">
         <v>422</v>
       </c>
       <c r="F12" s="31">
@@ -2291,7 +2292,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="N12" s="31">
-        <v>1.45E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="O12">
         <v>8.4694808999999996E-2</v>
@@ -2315,9 +2316,11 @@
       <c r="V12" s="2"/>
       <c r="AC12" s="31"/>
       <c r="AD12" s="31"/>
-      <c r="AE12" s="4"/>
+      <c r="AE12" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF12" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -2330,7 +2333,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13">
         <v>630</v>
       </c>
       <c r="F13" s="31">
@@ -2354,7 +2357,7 @@
         <v>4.7287559999999998E-3</v>
       </c>
       <c r="N13" s="31">
-        <v>2.1599999999999998E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O13">
         <v>0.10729520100000001</v>
@@ -2378,9 +2381,11 @@
       <c r="V13" s="2"/>
       <c r="AC13" s="31"/>
       <c r="AD13" s="31"/>
-      <c r="AE13" s="4"/>
+      <c r="AE13" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF13" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -2393,7 +2398,7 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14">
         <v>180</v>
       </c>
       <c r="F14" s="31">
@@ -2417,7 +2422,7 @@
         <v>4.991872E-2</v>
       </c>
       <c r="N14" s="31">
-        <v>2.1799999999999998E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O14">
         <v>0.209119157</v>
@@ -2441,9 +2446,11 @@
       <c r="V14" s="2"/>
       <c r="AC14" s="31"/>
       <c r="AD14" s="31"/>
-      <c r="AE14" s="4"/>
+      <c r="AE14" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF14" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2490,7 @@
         <v>8.3536779999999998E-3</v>
       </c>
       <c r="N15" s="10">
-        <v>9.4200000000000006E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O15" s="9">
         <v>0.71503051399999995</v>
@@ -2515,9 +2522,11 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="11"/>
+      <c r="AE15" s="11">
+        <v>10000000000</v>
+      </c>
       <c r="AF15" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
@@ -2555,7 +2564,7 @@
         <v>1.02501E-4</v>
       </c>
       <c r="N16" s="14">
-        <v>5.98E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O16" s="13">
         <v>0.37134957000000002</v>
@@ -2585,9 +2594,11 @@
       <c r="AB16" s="13"/>
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
-      <c r="AE16" s="15"/>
+      <c r="AE16" s="15">
+        <v>10000000000</v>
+      </c>
       <c r="AF16" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2626,7 +2637,7 @@
         <v>8.1388099999999998E-3</v>
       </c>
       <c r="N17" s="35">
-        <v>3.6300000000000001E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="O17" s="1">
         <v>0.56663449099999996</v>
@@ -2652,9 +2663,11 @@
       <c r="V17" s="6"/>
       <c r="AC17" s="35"/>
       <c r="AD17" s="35"/>
-      <c r="AE17" s="7"/>
+      <c r="AE17" s="7">
+        <v>10000000000</v>
+      </c>
       <c r="AF17" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -2667,7 +2680,7 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18">
         <v>60</v>
       </c>
       <c r="F18" s="31">
@@ -2679,7 +2692,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="24"/>
       <c r="J18" s="2">
-        <v>1.6517E-2</v>
+        <v>1.8516999999999999E-2</v>
       </c>
       <c r="K18">
         <v>4.4002100000000004</v>
@@ -2688,10 +2701,10 @@
         <v>2.2344900000000001</v>
       </c>
       <c r="M18">
-        <v>1.2895700000000001E-3</v>
+        <v>4.2895700000000004E-3</v>
       </c>
       <c r="N18" s="31">
-        <v>1.2799999999999999E-9</v>
+        <v>1E-8</v>
       </c>
       <c r="O18">
         <v>0.9</v>
@@ -2715,9 +2728,11 @@
       <c r="V18" s="2"/>
       <c r="AC18" s="31"/>
       <c r="AD18" s="31"/>
-      <c r="AE18" s="4"/>
+      <c r="AE18" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF18" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2744,7 +2759,7 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="6">
-        <v>2.3195785E-2</v>
+        <v>2.8195785000000001E-2</v>
       </c>
       <c r="K19" s="1">
         <v>1.0899169470000001</v>
@@ -2753,10 +2768,10 @@
         <v>2.2198117310000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1.02501E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="N19" s="35">
-        <v>1.8500000000000001E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O19" s="1">
         <v>0.77567293999999998</v>
@@ -2782,9 +2797,11 @@
       <c r="V19" s="6"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="35"/>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="7">
+        <v>10000000000</v>
+      </c>
       <c r="AF19" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
@@ -2797,7 +2814,7 @@
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20">
         <v>30</v>
       </c>
       <c r="F20" s="31">
@@ -2809,34 +2826,34 @@
       <c r="H20" s="4"/>
       <c r="I20" s="24"/>
       <c r="J20" s="2">
-        <v>9.4946216E-2</v>
+        <v>0.1025503</v>
       </c>
       <c r="K20">
-        <v>1.7989787420000001</v>
+        <v>1.4693700000000001</v>
       </c>
       <c r="L20">
-        <v>3.5626082060000002</v>
+        <v>4.3593299999999999</v>
       </c>
       <c r="M20">
-        <v>1.0935772999999999E-2</v>
+        <v>5.0897100000000001E-2</v>
       </c>
       <c r="N20" s="31">
-        <v>8.8199999999999995E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O20">
-        <v>1.9261052700000001</v>
+        <v>3.1069</v>
       </c>
       <c r="P20">
-        <v>0.999999953</v>
+        <v>0.234123</v>
       </c>
       <c r="Q20" s="31">
-        <v>39.602926070000002</v>
+        <v>126000000</v>
       </c>
       <c r="R20" s="31">
-        <v>523642952.30000001</v>
+        <v>561000000</v>
       </c>
       <c r="S20">
-        <v>30</v>
+        <v>24.2303</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2845,9 +2862,11 @@
       <c r="V20" s="2"/>
       <c r="AC20" s="31"/>
       <c r="AD20" s="31"/>
-      <c r="AE20" s="4"/>
+      <c r="AE20" s="4">
+        <v>10000000000</v>
+      </c>
       <c r="AF20" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2891,7 +2910,7 @@
         <v>2.2526477999999999E-2</v>
       </c>
       <c r="N21" s="35">
-        <v>2.2400000000000001E-12</v>
+        <v>1E-8</v>
       </c>
       <c r="O21" s="1">
         <v>6.5184218000000002E-2</v>
@@ -2915,37 +2934,37 @@
         <v>1.5096646999999999E-2</v>
       </c>
       <c r="V21" s="6">
-        <v>68.208128121421197</v>
+        <v>76.913528841436943</v>
       </c>
       <c r="W21" s="1">
-        <v>2.53683459888894</v>
+        <v>15.382705768287387</v>
       </c>
       <c r="X21" s="35">
-        <v>1.39017742995036E-6</v>
+        <v>9.5710051200284568E-7</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.255206038589325</v>
+        <v>0.38704294660308736</v>
       </c>
       <c r="Z21" s="35">
-        <v>2.5660309283191899E-11</v>
+        <v>9.2227874399761409E-10</v>
       </c>
       <c r="AA21" s="35">
-        <v>1.07068438633015E-10</v>
+        <v>3.0848583905919153E-13</v>
       </c>
       <c r="AB21" s="35">
-        <v>2.01379773874347E-8</v>
+        <v>6.4515853998261045E-11</v>
       </c>
       <c r="AC21" s="35">
-        <v>2430390393.86133</v>
+        <v>23319334699.399303</v>
       </c>
       <c r="AD21" s="35">
-        <v>4151464.5560032302</v>
+        <v>1086285512.8503594</v>
       </c>
       <c r="AE21" s="7">
-        <v>43317661557.505997</v>
+        <v>10000000000</v>
       </c>
       <c r="AF21" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2989,7 +3008,7 @@
         <v>4.5864469999999996E-3</v>
       </c>
       <c r="N22" s="35">
-        <v>1.5700000000000001E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O22" s="1">
         <v>0.36965775899999997</v>
@@ -3013,37 +3032,37 @@
         <v>1.5992085999999999E-2</v>
       </c>
       <c r="V22" s="6">
-        <v>27.448034966594101</v>
+        <v>52.735033396101784</v>
       </c>
       <c r="W22" s="1">
-        <v>3.3845635294294398</v>
+        <v>10.547006679220356</v>
       </c>
       <c r="X22" s="35">
-        <v>5.4372722608487196E-6</v>
+        <v>2.8904179365091491E-6</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.45153546479798601</v>
+        <v>0.62444800516917132</v>
       </c>
       <c r="Z22" s="35">
-        <v>4.8976505528760599E-12</v>
+        <v>2.983745259119309E-12</v>
       </c>
       <c r="AA22" s="35">
-        <v>6.3853865531662099E-11</v>
+        <v>8.4619285596869567E-13</v>
       </c>
       <c r="AB22" s="35">
-        <v>1.40111452716426E-8</v>
+        <v>6.9194403955272685E-9</v>
       </c>
       <c r="AC22" s="35">
-        <v>4999999999.1052399</v>
+        <v>96541748460.270813</v>
       </c>
       <c r="AD22" s="35">
-        <v>1000000.00300087</v>
+        <v>104048252.99445488</v>
       </c>
       <c r="AE22" s="7">
-        <v>3087935937.9197001</v>
+        <v>10000000000</v>
       </c>
       <c r="AF22" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
@@ -3082,10 +3101,10 @@
         <v>1.4286883210000001</v>
       </c>
       <c r="M23">
-        <v>1.025059E-3</v>
+        <v>4.1025059999999997E-3</v>
       </c>
       <c r="N23" s="31">
-        <v>1.8999999999999999E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O23">
         <v>0.268138396</v>
@@ -3107,37 +3126,37 @@
       </c>
       <c r="U23" s="5"/>
       <c r="V23" s="2">
-        <v>4.5571207000000002E-2</v>
+        <v>28.316774365967262</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>5.6633548731934527</v>
       </c>
       <c r="X23" s="31">
-        <v>1.9999999999999999E-7</v>
+        <v>4.1449772093073002E-7</v>
       </c>
       <c r="Y23">
-        <v>0.33598185600000002</v>
+        <v>0.67866358714397801</v>
       </c>
       <c r="Z23" s="31">
-        <v>1.0099999999999999E-12</v>
+        <v>9.9821369418792671E-11</v>
       </c>
       <c r="AA23" s="31">
-        <v>1E-10</v>
+        <v>2.7315993712025587E-13</v>
       </c>
       <c r="AB23" s="31">
-        <v>2.7099999999999999E-9</v>
+        <v>1.3790450352538784E-11</v>
       </c>
       <c r="AC23" s="31">
-        <v>4962766759</v>
+        <v>90505832044.477219</v>
       </c>
       <c r="AD23" s="31">
-        <v>1236437.0449999999</v>
+        <v>111366630.48328595</v>
       </c>
       <c r="AE23" s="4">
-        <v>591177539.39999998</v>
+        <v>10000000000</v>
       </c>
       <c r="AF23" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
@@ -3176,10 +3195,10 @@
         <v>3.3019136530000002</v>
       </c>
       <c r="M24" s="18">
-        <v>1.890058E-3</v>
+        <v>1.5900580000000001E-3</v>
       </c>
       <c r="N24" s="19">
-        <v>3.6800000000000001E-7</v>
+        <v>1E-8</v>
       </c>
       <c r="O24" s="18">
         <v>1.9999960750000001</v>
@@ -3201,37 +3220,37 @@
       </c>
       <c r="U24" s="22"/>
       <c r="V24" s="17">
-        <v>3.9669189820000001</v>
+        <v>61.903674811435536</v>
       </c>
       <c r="W24" s="18">
-        <v>15.43146632</v>
+        <v>12.380734962287107</v>
       </c>
       <c r="X24" s="19">
-        <v>1.64E-6</v>
+        <v>8.4847433032214689E-8</v>
       </c>
       <c r="Y24" s="18">
-        <v>0.11779933099999999</v>
+        <v>0.11254723922254434</v>
       </c>
       <c r="Z24" s="19">
-        <v>6.0999999999999996E-11</v>
+        <v>1.297265896029521E-9</v>
       </c>
       <c r="AA24" s="19">
-        <v>2.3000000000000001E-10</v>
+        <v>3.1069532556110008E-13</v>
       </c>
       <c r="AB24" s="19">
-        <v>8.8100000000000008E-9</v>
+        <v>2.9035140136910996E-12</v>
       </c>
       <c r="AC24" s="19">
-        <v>4636684888</v>
+        <v>71546035825.061356</v>
       </c>
       <c r="AD24" s="19">
-        <v>1000004.313</v>
+        <v>139586524.1858319</v>
       </c>
       <c r="AE24" s="21">
-        <v>7144438762</v>
+        <v>10000000000</v>
       </c>
       <c r="AF24" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -3273,7 +3292,7 @@
         <v>8.3286990000000002E-3</v>
       </c>
       <c r="N25" s="14">
-        <v>1.9200000000000001E-10</v>
+        <v>1E-8</v>
       </c>
       <c r="O25" s="13">
         <v>0.107439619</v>
@@ -3295,37 +3314,37 @@
       </c>
       <c r="U25" s="12"/>
       <c r="V25" s="12">
-        <v>13.25874256</v>
+        <v>12.35621685618707</v>
       </c>
       <c r="W25" s="13">
-        <v>2.2082652939999998</v>
+        <v>12.149672424962704</v>
       </c>
       <c r="X25" s="14">
-        <v>8.1999999999999994E-6</v>
+        <v>5.1333770558821756E-6</v>
       </c>
       <c r="Y25" s="13">
-        <v>0.67087413399999996</v>
+        <v>0.64675772809783161</v>
       </c>
       <c r="Z25" s="14">
-        <v>1.44E-11</v>
+        <v>9.9510864092256234E-9</v>
       </c>
       <c r="AA25" s="14">
-        <v>1.11E-10</v>
+        <v>1.4288841826727164E-12</v>
       </c>
       <c r="AB25" s="14">
-        <v>4.0600000000000001E-6</v>
+        <v>9.9254441449725018E-9</v>
       </c>
       <c r="AC25" s="14">
-        <v>4920155757</v>
+        <v>98815447808.598389</v>
       </c>
       <c r="AD25" s="14">
-        <v>1000000.468</v>
+        <v>101115393.53615342</v>
       </c>
       <c r="AE25" s="15">
-        <v>5348648465</v>
+        <v>10000000000</v>
       </c>
       <c r="AF25" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
     <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3388,7 @@
         <v>0.12</v>
       </c>
       <c r="N26" s="10">
-        <v>1.0599999999999999E-11</v>
+        <v>1E-8</v>
       </c>
       <c r="O26" s="9">
         <v>1.4219700099999999</v>
@@ -3387,43 +3406,43 @@
         <v>1.000209E-3</v>
       </c>
       <c r="T26" s="9">
-        <v>44.258612849999999</v>
+        <v>14.25861285</v>
       </c>
       <c r="U26" s="8">
         <v>1.703062E-3</v>
       </c>
       <c r="V26" s="8">
-        <v>0.98636460699999995</v>
+        <v>18.039599259106915</v>
       </c>
       <c r="W26" s="9">
-        <v>1.5</v>
+        <v>21.069375448618214</v>
       </c>
       <c r="X26" s="10">
-        <v>3.9999999999999998E-6</v>
+        <v>2.9402228133730654E-6</v>
       </c>
       <c r="Y26" s="9">
-        <v>0.57357167099999995</v>
+        <v>0.55519449220430062</v>
       </c>
       <c r="Z26" s="10">
-        <v>5.2600000000000001E-8</v>
+        <v>9.9753917446602381E-9</v>
       </c>
       <c r="AA26" s="10">
-        <v>8.6300000000000002E-12</v>
+        <v>3.7199944192846394E-13</v>
       </c>
       <c r="AB26" s="10">
-        <v>5.4799999999999998E-7</v>
+        <v>9.991787741309406E-9</v>
       </c>
       <c r="AC26" s="10">
-        <v>4999999217</v>
+        <v>99330786830.329727</v>
       </c>
       <c r="AD26" s="10">
-        <v>11129.492770000001</v>
+        <v>100556383.98663414</v>
       </c>
       <c r="AE26" s="11">
-        <v>410360413.5</v>
+        <v>10000000000</v>
       </c>
       <c r="AF26" s="31">
-        <v>2000000000000</v>
+        <v>4250000000000</v>
       </c>
     </row>
   </sheetData>
